--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Malta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -597,262 +597,6 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -860,6 +604,262 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -882,9 +882,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="34"/>
-    <tableColumn id="2" name="Link" dataDxfId="33" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="32"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1159,22 +1159,22 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="36.6328125" style="12" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="12" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="12" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2011</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2012</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2012</v>
       </c>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2013</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2013</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2014</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2014</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2015</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2015</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2015</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2015</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2016</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2016</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2016</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2016</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2016</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2017</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2017</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2017</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2017</v>
       </c>
@@ -1987,14 +1987,14 @@
         <v>7</v>
       </c>
       <c r="H29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2018</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2018</v>
       </c>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2019</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2019</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2019</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
@@ -2287,11 +2287,11 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G5 G7 H3:H7 G9:H10 G12:H12 G14:H15 G17:H17 G19:H19 G21:H21 G24:H24 G26:H26 G29:H29 G31:H31 G33:H33 G35:H37 G39:H39">
-    <cfRule type="containsText" dxfId="31" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G5 G7 H3:H7 G9:H10 G12:H12 G14:H15 G17:H17 G19:H19 G21:H21 G24:H24 G26:H26 G29:H29 G31:H31 G33:H33 G35:H37 G39:H39">
+  <conditionalFormatting sqref="G5 G3 G7 H3:H7 G9:H10 G12:H12 G14:H15 G17:H17 G19:H19 G21:H21 G24:H24 G26:H26 G29:H29 G31:H31 G33:H33 G35:H37 G39:H39">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2304,7 +2304,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2321,7 +2321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2338,7 +2338,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2355,7 +2355,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2372,7 +2372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2389,7 +2389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2406,7 +2406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2423,7 +2423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2440,7 +2440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2457,7 +2457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2474,7 +2474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2491,7 +2491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2508,7 +2508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2525,7 +2525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2542,7 +2542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2559,7 +2559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2576,7 +2576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2593,7 +2593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2610,7 +2610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2627,7 +2627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2644,7 +2644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2661,7 +2661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2678,7 +2678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2695,7 +2695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2712,7 +2712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2729,7 +2729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2746,7 +2746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2763,7 +2763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2780,7 +2780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2797,7 +2797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2814,7 +2814,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:H38">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2844,14 +2844,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="73">
   <si>
     <t>Year</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Obv: Without mint symbol</t>
   </si>
   <si>
-    <t>Obv: With mint letter "F"</t>
-  </si>
-  <si>
     <t>Obv: With mint symbol - Cornucopia</t>
   </si>
   <si>
@@ -301,6 +298,27 @@
   </si>
   <si>
     <t>20.000</t>
+  </si>
+  <si>
+    <t>Subtype_3</t>
+  </si>
+  <si>
+    <t>Subtype_4</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>Obv: Mint director Symbol - Sailboat</t>
+  </si>
+  <si>
+    <t>Subtype_5</t>
+  </si>
+  <si>
+    <t>Obv: With mint letter "F" in star</t>
+  </si>
+  <si>
+    <t>Obv: Mint director Symbol - Pentagon</t>
   </si>
 </sst>
 </file>
@@ -411,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -504,13 +522,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -589,6 +616,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -597,15 +627,6 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -860,6 +881,15 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -882,9 +912,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="34"/>
+    <tableColumn id="2" name="Link" dataDxfId="33" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1153,28 +1183,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="36.5703125" style="12" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="12" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="12" customWidth="1"/>
+    <col min="5" max="6" width="24.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" style="12" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" style="12" customWidth="1"/>
+    <col min="10" max="11" width="3.81640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1184,18 +1217,21 @@
       <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="29"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
@@ -1204,47 +1240,65 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="E3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="I3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="9">
         <v>0</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="10" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="10" t="str">
+        <f>IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -1257,1023 +1311,1219 @@
       <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="10" t="str">
-        <f t="shared" ref="I4:I33" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="10" t="str">
+        <f t="shared" ref="L4:L33" si="0">IF(OR(AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="E5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="I5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="10" t="str">
+      <c r="K5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="I7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="10" t="str">
+      <c r="K7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2012</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="10" t="str">
+      <c r="E8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="E9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="I9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="10" t="str">
+      <c r="K9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2013</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="I10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="10" t="str">
+      <c r="K10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2013</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="10" t="str">
+      <c r="E11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2014</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="I12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="9">
         <v>0</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="10" t="str">
+      <c r="K12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2014</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="10" t="str">
+      <c r="E13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="I14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="9">
         <v>0</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="10" t="str">
+      <c r="K14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2015</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="I15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="9">
         <v>0</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="10" t="str">
+      <c r="K15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="10" t="str">
+      <c r="E16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="I17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="9">
         <v>0</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="10" t="str">
+      <c r="K17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2015</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="10" t="str">
+      <c r="E18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2015</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="I19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="9">
         <v>0</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="10" t="str">
+      <c r="K19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2015</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="10" t="str">
+      <c r="E20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2016</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="9">
+      <c r="E21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="9">
         <v>0</v>
       </c>
-      <c r="I21" s="10" t="str">
+      <c r="L21" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2016</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="D22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="10" t="str">
+        <v>71</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2016</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="D23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="10" t="str">
+        <v>55</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>2016</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="E24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="9">
         <v>0</v>
       </c>
-      <c r="I24" s="10" t="str">
+      <c r="L24" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>2016</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="10" t="str">
+        <v>55</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>2017</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="9">
+      <c r="E26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="9">
         <v>0</v>
       </c>
-      <c r="I26" s="10" t="str">
+      <c r="L26" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>2017</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="D27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="10" t="str">
+        <v>71</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>2017</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="10" t="str">
+        <v>55</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>2017</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="9">
+      <c r="E29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="9">
         <v>1</v>
       </c>
-      <c r="I29" s="10" t="str">
+      <c r="L29" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f t="shared" ref="I30" si="1">IF(OR(AND(G30&gt;1,G30&lt;&gt;"-"),AND(H30&gt;1,H30&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="10" t="str">
+        <f t="shared" ref="L30" si="1">IF(OR(AND(J30&gt;1,J30&lt;&gt;"-"),AND(K30&gt;1,K30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>2018</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="J31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="9">
         <v>1</v>
       </c>
-      <c r="I31" s="10" t="str">
+      <c r="L31" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="D32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="9">
+      <c r="J33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="9">
         <v>1</v>
       </c>
-      <c r="I33" s="10" t="str">
+      <c r="L33" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>2018</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>2019</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="E35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="9">
+      <c r="J35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="9">
         <v>2</v>
       </c>
-      <c r="I35" s="10" t="str">
-        <f t="shared" ref="I35:I39" si="2">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="L35" s="10" t="str">
+        <f t="shared" ref="L35:L39" si="2">IF(OR(AND(J35&gt;1,J35&lt;&gt;"-"),AND(K35&gt;1,K35&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>2019</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="D36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="9">
+        <v>71</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="9">
         <v>1</v>
       </c>
-      <c r="I36" s="10" t="str">
+      <c r="L36" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>2019</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="D37" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="10" t="str">
+        <v>55</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="E38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="9">
+      <c r="J38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="9">
         <v>1</v>
       </c>
-      <c r="I38" s="10" t="str">
+      <c r="L38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="10" t="str">
+        <v>55</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2282,16 +2532,16 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3 G5 G7 H3:H7 G9:H10 G12:H12 G14:H15 G17:H17 G19:H19 G21:H21 G24:H24 G26:H26 G29:H29 G31:H31 G33:H33 G35:H37 G39:H39">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G3 G7 H3:H7 G9:H10 G12:H12 G14:H15 G17:H17 G19:H19 G21:H21 G24:H24 G26:H26 G29:H29 G31:H31 G33:H33 G35:H37 G39:H39">
+  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
+    <cfRule type="containsText" dxfId="31" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2303,12 +2553,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2320,12 +2570,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2337,12 +2587,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="K8">
+    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2354,12 +2604,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2371,12 +2621,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2388,12 +2638,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2405,12 +2655,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2422,12 +2672,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2439,12 +2689,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2456,12 +2706,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2473,12 +2723,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2490,12 +2740,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2507,12 +2757,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2524,12 +2774,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2541,12 +2791,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2558,12 +2808,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2575,12 +2825,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2592,12 +2842,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2609,12 +2859,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2626,12 +2876,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2643,12 +2893,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="K27">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2660,12 +2910,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2677,12 +2927,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2694,12 +2944,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2711,12 +2961,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="K30">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2728,12 +2978,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2745,12 +2995,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="K32">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2762,12 +3012,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2779,12 +3029,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+  <conditionalFormatting sqref="K34">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2796,12 +3046,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2813,12 +3063,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38:H38">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38:H38">
+  <conditionalFormatting sqref="J38:K38">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2844,14 +3094,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +3112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2873,7 +3123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2884,7 +3134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2895,7 +3145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2906,7 +3156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2917,7 +3167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>6</v>
       </c>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Malta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -599,12 +599,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,7 +610,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,6 +627,15 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -881,15 +890,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -912,9 +912,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="34"/>
-    <tableColumn id="2" name="Link" dataDxfId="33" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="32"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1189,49 +1189,49 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="12" customWidth="1"/>
-    <col min="5" max="6" width="24.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.6328125" style="12" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" style="12" customWidth="1"/>
-    <col min="10" max="11" width="3.81640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="24.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="12" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" style="12" customWidth="1"/>
+    <col min="10" max="11" width="3.85546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="29"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2011</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2012</v>
       </c>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2012</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2013</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2013</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2014</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2014</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2015</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2015</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2015</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2015</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2016</v>
       </c>
@@ -1903,14 +1903,14 @@
         <v>7</v>
       </c>
       <c r="K21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2016</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2016</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2016</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2016</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2017</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2017</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2017</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2017</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2018</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2018</v>
       </c>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2019</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2019</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2019</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
@@ -2537,11 +2537,11 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
-    <cfRule type="containsText" dxfId="31" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
+  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2554,7 +2554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2571,7 +2571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2588,7 +2588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2605,7 +2605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2622,7 +2622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2639,7 +2639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2656,7 +2656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2673,7 +2673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2690,7 +2690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2707,7 +2707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2724,7 +2724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2741,7 +2741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2758,7 +2758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2775,7 +2775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2792,7 +2792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2809,7 +2809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2826,7 +2826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2843,7 +2843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2860,7 +2860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2877,7 +2877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2894,7 +2894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2911,7 +2911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2928,7 +2928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2945,7 +2945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2962,7 +2962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2979,7 +2979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2996,7 +2996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3013,7 +3013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3030,7 +3030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3047,7 +3047,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3064,7 +3064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3094,14 +3094,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="76">
   <si>
     <t>Year</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>Obv: Mint director Symbol - Pentagon</t>
+  </si>
+  <si>
+    <t>Skorba Temples</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>From children in solidarity</t>
   </si>
 </sst>
 </file>
@@ -625,7 +634,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -912,9 +937,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="4"/>
+    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1183,31 +1208,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="12" customWidth="1"/>
-    <col min="5" max="6" width="24.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="12" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" style="12" customWidth="1"/>
-    <col min="10" max="11" width="3.85546875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="12" customWidth="1"/>
+    <col min="5" max="6" width="24.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" style="12" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" style="12" customWidth="1"/>
+    <col min="10" max="11" width="3.81640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1256,7 @@
       <c r="K1" s="27"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
@@ -1263,7 +1288,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
@@ -1298,7 +1323,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -1331,7 +1356,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
@@ -1366,7 +1391,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2011</v>
       </c>
@@ -1403,7 +1428,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2012</v>
       </c>
@@ -1439,7 +1464,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2012</v>
       </c>
@@ -1475,7 +1500,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
@@ -1508,7 +1533,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2013</v>
       </c>
@@ -1541,7 +1566,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2013</v>
       </c>
@@ -1574,7 +1599,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2014</v>
       </c>
@@ -1607,7 +1632,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2014</v>
       </c>
@@ -1640,7 +1665,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1673,7 +1698,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2015</v>
       </c>
@@ -1706,7 +1731,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1739,7 +1764,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1774,7 +1799,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2015</v>
       </c>
@@ -1809,7 +1834,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2015</v>
       </c>
@@ -1842,7 +1867,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2015</v>
       </c>
@@ -1875,7 +1900,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2016</v>
       </c>
@@ -1910,7 +1935,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2016</v>
       </c>
@@ -1945,7 +1970,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2016</v>
       </c>
@@ -1982,14 +2007,16 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>2016</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D24" s="8" t="s">
         <v>54</v>
       </c>
@@ -2015,14 +2042,16 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>2016</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D25" s="8" t="s">
         <v>55</v>
       </c>
@@ -2048,7 +2077,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>2017</v>
       </c>
@@ -2083,7 +2112,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>2017</v>
       </c>
@@ -2118,7 +2147,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>2017</v>
       </c>
@@ -2155,14 +2184,16 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>2017</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D29" s="8" t="s">
         <v>54</v>
       </c>
@@ -2188,14 +2219,16 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D30" s="8" t="s">
         <v>55</v>
       </c>
@@ -2223,7 +2256,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>2018</v>
       </c>
@@ -2258,7 +2291,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
@@ -2290,14 +2323,16 @@
       </c>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D33" s="8" t="s">
         <v>54</v>
       </c>
@@ -2323,14 +2358,16 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>2018</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D34" s="8" t="s">
         <v>55</v>
       </c>
@@ -2353,7 +2390,7 @@
       </c>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>2019</v>
       </c>
@@ -2388,7 +2425,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>2019</v>
       </c>
@@ -2423,7 +2460,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>2019</v>
       </c>
@@ -2460,14 +2497,16 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D38" s="8" t="s">
         <v>54</v>
       </c>
@@ -2493,14 +2532,16 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D39" s="8" t="s">
         <v>55</v>
       </c>
@@ -2525,6 +2566,56 @@
       </c>
       <c r="L39" s="10" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="10" t="str">
+        <f t="shared" ref="L40:L41" si="3">IF(OR(AND(J40&gt;1,J40&lt;&gt;"-"),AND(K40&gt;1,K40&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="10" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2537,12 +2628,12 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
-    <cfRule type="colorScale" priority="70">
+  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2554,11 +2645,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2570,12 +2695,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J8">
     <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2587,12 +2712,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="K11">
     <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2604,12 +2729,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J11">
     <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2621,12 +2746,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="K13">
     <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2638,12 +2763,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J13">
     <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2655,12 +2780,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="K16">
     <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2672,12 +2797,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J16">
     <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2689,12 +2814,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="K18">
     <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2706,12 +2831,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J18">
     <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2723,12 +2848,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+  <conditionalFormatting sqref="K20">
     <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2740,12 +2865,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J20">
     <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2757,12 +2882,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="K22">
     <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2774,12 +2899,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J22">
     <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2791,12 +2916,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="K23">
     <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2808,12 +2933,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J23">
     <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2825,12 +2950,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="K25">
     <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2842,12 +2967,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J25">
     <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2859,12 +2984,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="K27">
     <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2876,12 +3001,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="J27">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2893,12 +3018,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2910,12 +3035,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J28">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2927,12 +3052,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="K30">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2944,12 +3069,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="J30">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2961,12 +3086,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="K32">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2978,12 +3103,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="J32">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2995,12 +3120,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+  <conditionalFormatting sqref="K34">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3012,12 +3137,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="J34">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3029,12 +3154,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3046,12 +3171,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="J40:K40">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:K40">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3063,12 +3188,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
+  <conditionalFormatting sqref="J41:K41">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:K41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3094,14 +3219,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -3123,7 +3248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -3134,7 +3259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -3145,7 +3270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -3156,7 +3281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -3167,7 +3292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>6</v>
       </c>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Malta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77543AC-5A70-4179-A82E-BA43D50B4DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="79">
   <si>
     <t>Year</t>
   </si>
@@ -328,12 +329,21 @@
   </si>
   <si>
     <t>From children in solidarity</t>
+  </si>
+  <si>
+    <t>170.000</t>
+  </si>
+  <si>
+    <t>220.000</t>
+  </si>
+  <si>
+    <t>10.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -632,9 +642,369 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -659,262 +1029,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -930,16 +1044,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="4"/>
-    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="48" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1207,32 +1321,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="12" customWidth="1"/>
-    <col min="5" max="6" width="24.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" style="12" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" style="12" customWidth="1"/>
-    <col min="10" max="11" width="3.81640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="24.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="12" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" style="12" customWidth="1"/>
+    <col min="10" max="11" width="3.85546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1370,7 @@
       <c r="K1" s="27"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
@@ -1288,7 +1402,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
@@ -1323,7 +1437,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -1356,7 +1470,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
@@ -1391,7 +1505,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2011</v>
       </c>
@@ -1428,7 +1542,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2012</v>
       </c>
@@ -1464,7 +1578,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2012</v>
       </c>
@@ -1500,7 +1614,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
@@ -1533,7 +1647,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2013</v>
       </c>
@@ -1566,7 +1680,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2013</v>
       </c>
@@ -1599,7 +1713,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2014</v>
       </c>
@@ -1632,7 +1746,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2014</v>
       </c>
@@ -1665,7 +1779,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1698,7 +1812,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2015</v>
       </c>
@@ -1731,7 +1845,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1764,7 +1878,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1799,7 +1913,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2015</v>
       </c>
@@ -1834,7 +1948,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2015</v>
       </c>
@@ -1867,7 +1981,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2015</v>
       </c>
@@ -1900,7 +2014,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2016</v>
       </c>
@@ -1935,7 +2049,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2016</v>
       </c>
@@ -1970,7 +2084,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2016</v>
       </c>
@@ -2007,7 +2121,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2016</v>
       </c>
@@ -2042,7 +2156,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2016</v>
       </c>
@@ -2077,7 +2191,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2017</v>
       </c>
@@ -2112,7 +2226,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2017</v>
       </c>
@@ -2147,7 +2261,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2017</v>
       </c>
@@ -2184,7 +2298,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2017</v>
       </c>
@@ -2219,7 +2333,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
@@ -2256,7 +2370,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2018</v>
       </c>
@@ -2291,7 +2405,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
@@ -2323,7 +2437,7 @@
       </c>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
@@ -2358,7 +2472,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2018</v>
       </c>
@@ -2390,7 +2504,7 @@
       </c>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2019</v>
       </c>
@@ -2425,7 +2539,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2019</v>
       </c>
@@ -2460,7 +2574,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2019</v>
       </c>
@@ -2497,7 +2611,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
@@ -2532,7 +2646,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
@@ -2569,7 +2683,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2020</v>
       </c>
@@ -2579,43 +2693,170 @@
       <c r="C40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="E40" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
+      <c r="H40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
       <c r="L40" s="10" t="str">
-        <f t="shared" ref="L40:L41" si="3">IF(OR(AND(J40&gt;1,J40&lt;&gt;"-"),AND(K40&gt;1,K40&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L40:L43" si="3">IF(OR(AND(J40&gt;1,J40&lt;&gt;"-"),AND(K40&gt;1,K40&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2020</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="10" t="str">
+        <f t="shared" ref="L41:L42" si="4">IF(OR(AND(J41&gt;1,J41&lt;&gt;"-"),AND(K41&gt;1,K41&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="10" t="str">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10" t="str">
         <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="10" t="str">
+        <f t="shared" ref="L44" si="5">IF(OR(AND(J44&gt;1,J44&lt;&gt;"-"),AND(K44&gt;1,K44&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2628,11 +2869,181 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
+    <cfRule type="containsText" dxfId="46" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="45" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="44" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="containsText" dxfId="43" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="42" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="41" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="40" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="39" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="38" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="37" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="containsText" dxfId="36" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2644,12 +3055,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="35" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="32" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2661,12 +3123,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2678,12 +3140,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2695,12 +3157,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2712,12 +3174,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2729,12 +3191,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2746,12 +3208,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2763,12 +3225,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="K27">
+    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2780,12 +3242,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2797,12 +3259,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2814,12 +3276,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2831,12 +3293,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="K30">
+    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2848,12 +3310,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2865,12 +3327,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="K32">
+    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2882,12 +3344,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2899,12 +3361,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="K34">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2916,12 +3378,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2933,12 +3395,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J38:K38">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2950,46 +3412,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="J40">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3001,12 +3429,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="K40">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3018,12 +3446,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="J43">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3035,12 +3463,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="K43">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3052,12 +3480,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="J41">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3069,29 +3497,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+  <conditionalFormatting sqref="J42">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3103,29 +3514,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+  <conditionalFormatting sqref="K41">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3137,12 +3531,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="K42">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3154,12 +3548,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
+  <conditionalFormatting sqref="J44">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3171,29 +3565,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:K40">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:K40">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:K41">
+  <conditionalFormatting sqref="K44">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:K41">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3212,21 +3589,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3237,7 +3614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -3248,7 +3625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -3259,7 +3636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -3270,7 +3647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -3281,7 +3658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -3292,7 +3669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -3305,12 +3682,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Malta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77543AC-5A70-4179-A82E-BA43D50B4DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12485C9-1B61-4955-B707-8A8377365CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -100,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="95">
   <si>
     <t>Year</t>
   </si>
@@ -325,9 +334,6 @@
     <t>Skorba Temples</t>
   </si>
   <si>
-    <t>Games</t>
-  </si>
-  <si>
     <t>From children in solidarity</t>
   </si>
   <si>
@@ -338,6 +344,57 @@
   </si>
   <si>
     <t>10.000</t>
+  </si>
+  <si>
+    <t>Heroes of the pandemic</t>
+  </si>
+  <si>
+    <t>Children’s Games</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - Square</t>
+  </si>
+  <si>
+    <t>60.000</t>
+  </si>
+  <si>
+    <t>Tarxien Temples</t>
+  </si>
+  <si>
+    <t>11.000</t>
+  </si>
+  <si>
+    <t>150.000</t>
+  </si>
+  <si>
+    <t>82.500</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Hypogeum of Ħal Saflieni</t>
+  </si>
+  <si>
+    <t>180.000</t>
+  </si>
+  <si>
+    <t>United Nations Security Council Resolution</t>
+  </si>
+  <si>
+    <t>53.000</t>
+  </si>
+  <si>
+    <t>550th Anniversary - Birth of Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>85.000</t>
+  </si>
+  <si>
+    <t>225th Anniversary - Arrival of the French in Malta</t>
+  </si>
+  <si>
+    <t>80.500</t>
   </si>
 </sst>
 </file>
@@ -644,127 +701,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="77">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1029,6 +966,342 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1051,9 +1324,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="48" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="33" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1322,31 +1595,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="12" customWidth="1"/>
-    <col min="5" max="6" width="24.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="12" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" style="12" customWidth="1"/>
-    <col min="10" max="11" width="3.85546875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="12" customWidth="1"/>
+    <col min="5" max="6" width="24.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" style="12" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" style="12" customWidth="1"/>
+    <col min="10" max="11" width="3.81640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1643,7 @@
       <c r="K1" s="27"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
@@ -1402,7 +1675,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
@@ -1427,7 +1700,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>7</v>
@@ -1437,7 +1710,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -1470,7 +1743,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
@@ -1505,7 +1778,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2011</v>
       </c>
@@ -1542,7 +1815,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2012</v>
       </c>
@@ -1578,7 +1851,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2012</v>
       </c>
@@ -1614,7 +1887,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
@@ -1637,17 +1910,17 @@
         <v>7</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2013</v>
       </c>
@@ -1670,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>7</v>
@@ -1680,7 +1953,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2013</v>
       </c>
@@ -1713,7 +1986,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2014</v>
       </c>
@@ -1736,7 +2009,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>7</v>
@@ -1746,7 +2019,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2014</v>
       </c>
@@ -1779,7 +2052,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1802,7 +2075,7 @@
         <v>7</v>
       </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>7</v>
@@ -1812,7 +2085,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2015</v>
       </c>
@@ -1845,7 +2118,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1878,7 +2151,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1913,7 +2186,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2015</v>
       </c>
@@ -1948,7 +2221,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2015</v>
       </c>
@@ -1971,7 +2244,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>7</v>
@@ -1981,7 +2254,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2015</v>
       </c>
@@ -2014,7 +2287,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2016</v>
       </c>
@@ -2049,7 +2322,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2016</v>
       </c>
@@ -2084,7 +2357,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2016</v>
       </c>
@@ -2121,7 +2394,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>2016</v>
       </c>
@@ -2129,7 +2402,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>54</v>
@@ -2156,7 +2429,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>2016</v>
       </c>
@@ -2164,7 +2437,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>55</v>
@@ -2191,7 +2464,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>2017</v>
       </c>
@@ -2219,14 +2492,14 @@
         <v>7</v>
       </c>
       <c r="K26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>2017</v>
       </c>
@@ -2261,7 +2534,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>2017</v>
       </c>
@@ -2298,7 +2571,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>2017</v>
       </c>
@@ -2306,7 +2579,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>54</v>
@@ -2333,7 +2606,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
@@ -2341,7 +2614,7 @@
         <v>36</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>55</v>
@@ -2370,7 +2643,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>2018</v>
       </c>
@@ -2405,7 +2678,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
@@ -2437,7 +2710,7 @@
       </c>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
@@ -2445,7 +2718,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>54</v>
@@ -2472,7 +2745,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>2018</v>
       </c>
@@ -2480,7 +2753,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>55</v>
@@ -2504,7 +2777,7 @@
       </c>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>2019</v>
       </c>
@@ -2539,7 +2812,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>2019</v>
       </c>
@@ -2574,7 +2847,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>2019</v>
       </c>
@@ -2611,7 +2884,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
@@ -2619,7 +2892,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>54</v>
@@ -2646,7 +2919,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
@@ -2654,7 +2927,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>55</v>
@@ -2683,7 +2956,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>2020</v>
       </c>
@@ -2705,20 +2978,20 @@
         <v>7</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="10" t="str">
         <f t="shared" ref="L40:L43" si="3">IF(OR(AND(J40&gt;1,J40&lt;&gt;"-"),AND(K40&gt;1,K40&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>2020</v>
       </c>
@@ -2755,7 +3028,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>2020</v>
       </c>
@@ -2777,7 +3050,7 @@
         <v>7</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>7</v>
@@ -2790,17 +3063,19 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>2020</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="E43" s="8" t="s">
         <v>68</v>
       </c>
@@ -2810,28 +3085,28 @@
         <v>7</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>2020</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>55</v>
@@ -2857,6 +3132,315 @@
       </c>
       <c r="L44" s="10" t="str">
         <f t="shared" ref="L44" si="5">IF(OR(AND(J44&gt;1,J44&lt;&gt;"-"),AND(K44&gt;1,K44&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="10" t="str">
+        <f t="shared" ref="L45" si="6">IF(OR(AND(J45&gt;1,J45&lt;&gt;"-"),AND(K45&gt;1,K45&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="9">
+        <v>1</v>
+      </c>
+      <c r="L46" s="10" t="str">
+        <f t="shared" ref="L46" si="7">IF(OR(AND(J46&gt;1,J46&lt;&gt;"-"),AND(K46&gt;1,K46&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="10" t="str">
+        <f t="shared" ref="L47:L49" si="8">IF(OR(AND(J47&gt;1,J47&lt;&gt;"-"),AND(K47&gt;1,K47&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="9">
+        <v>1</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="10" t="str">
+        <f t="shared" ref="L50" si="9">IF(OR(AND(J50&gt;1,J50&lt;&gt;"-"),AND(K50&gt;1,K50&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="10" t="str">
+        <f t="shared" ref="L51" si="10">IF(OR(AND(J51&gt;1,J51&lt;&gt;"-"),AND(K51&gt;1,K51&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="10" t="str">
+        <f t="shared" ref="L52:L53" si="11">IF(OR(AND(J52&gt;1,J52&lt;&gt;"-"),AND(K52&gt;1,K52&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="10" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2869,11 +3453,436 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
-    <cfRule type="containsText" dxfId="46" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
+  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="75" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="74" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="containsText" dxfId="73" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="72" priority="141" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="71" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="70" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="69" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="68" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="67" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="66" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="65" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="64" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="63" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="62" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="61" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="60" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="59" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="58" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="57" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="56" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="containsText" dxfId="55" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="54" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="53" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="52" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="containsText" dxfId="51" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2885,12 +3894,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="45" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="50" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="containsText" dxfId="49" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="containsText" dxfId="48" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="containsText" dxfId="47" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2902,12 +3962,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="44" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="46" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2919,12 +3979,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="43" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="J38:K38">
+    <cfRule type="containsText" dxfId="45" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2936,46 +3996,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="42" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="41" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="40" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J40">
+    <cfRule type="containsText" dxfId="44" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2987,12 +4013,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="39" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="K40">
+    <cfRule type="containsText" dxfId="43" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3004,12 +4030,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="38" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J43">
+    <cfRule type="containsText" dxfId="42" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3021,12 +4047,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="37" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="K43">
+    <cfRule type="containsText" dxfId="41" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3038,12 +4064,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="36" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J41">
+    <cfRule type="containsText" dxfId="40" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3055,29 +4081,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="35" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J42">
+    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3089,29 +4098,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="32" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="K41">
+    <cfRule type="containsText" dxfId="38" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3123,12 +4115,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="K42">
+    <cfRule type="containsText" dxfId="37" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3140,12 +4132,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J44">
+    <cfRule type="containsText" dxfId="36" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3157,29 +4149,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="K44">
+    <cfRule type="containsText" dxfId="35" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3191,12 +4166,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="J45">
+    <cfRule type="containsText" dxfId="31" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3208,12 +4183,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="K45">
+    <cfRule type="containsText" dxfId="30" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3225,12 +4200,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="J46">
+    <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3242,29 +4217,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="27" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3276,12 +4234,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsText" dxfId="26" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3293,12 +4251,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="J48">
+    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3310,12 +4268,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="K48">
+    <cfRule type="containsText" dxfId="24" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3327,12 +4285,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+  <conditionalFormatting sqref="K46">
+    <cfRule type="containsText" dxfId="23" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3344,80 +4302,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+  <conditionalFormatting sqref="K51">
     <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3429,46 +4319,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
+  <conditionalFormatting sqref="J53">
     <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3480,12 +4336,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
+  <conditionalFormatting sqref="K53">
     <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3497,12 +4353,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
+  <conditionalFormatting sqref="J49">
     <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3514,12 +4370,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
+  <conditionalFormatting sqref="J50">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
     <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3531,12 +4404,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
+  <conditionalFormatting sqref="J52">
     <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3548,12 +4421,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
+  <conditionalFormatting sqref="K49">
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3565,12 +4438,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3596,14 +4486,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3614,7 +4504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -3625,7 +4515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -3636,7 +4526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -3647,7 +4537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -3658,7 +4548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -3669,7 +4559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>6</v>
       </c>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12485C9-1B61-4955-B707-8A8377365CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A8B07B-AF73-4214-B383-5B8F551ED6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   </si>
   <si>
     <t>80.500</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -701,263 +701,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -966,6 +710,150 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1324,9 +1212,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="33" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1601,7 +1489,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1624,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
       <c r="H1" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1" s="25"/>
       <c r="J1" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1" s="27"/>
       <c r="L1" s="3"/>
@@ -1647,31 +1535,31 @@
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -1680,30 +1568,30 @@
         <v>2009</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="9">
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" s="10" t="str">
         <f>IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1715,28 +1603,28 @@
         <v>2010</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" s="10" t="str">
         <f t="shared" ref="L4:L33" si="0">IF(OR(AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
@@ -1748,30 +1636,30 @@
         <v>2011</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="9">
         <v>0</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1783,32 +1671,32 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="I6" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1820,30 +1708,30 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="9">
         <v>0</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1856,30 +1744,30 @@
         <v>2012</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1892,28 +1780,28 @@
         <v>2012</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="9">
         <v>2</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1925,28 +1813,28 @@
         <v>2013</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="9">
         <v>1</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1958,28 +1846,28 @@
         <v>2013</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1991,28 +1879,28 @@
         <v>2014</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" s="9">
         <v>1</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L12" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2024,28 +1912,28 @@
         <v>2014</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2057,28 +1945,28 @@
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" s="9">
         <v>1</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2090,28 +1978,28 @@
         <v>2015</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" s="9">
         <v>0</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L15" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2123,28 +2011,28 @@
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2156,30 +2044,30 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17" s="9">
         <v>0</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L17" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2191,30 +2079,30 @@
         <v>2015</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L18" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2226,28 +2114,28 @@
         <v>2015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J19" s="9">
         <v>1</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L19" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2259,28 +2147,28 @@
         <v>2015</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L20" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2292,27 +2180,27 @@
         <v>2016</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K21" s="9">
         <v>1</v>
@@ -2327,30 +2215,30 @@
         <v>2016</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L22" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2362,32 +2250,32 @@
         <v>2016</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L23" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2399,27 +2287,27 @@
         <v>2016</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K24" s="9">
         <v>0</v>
@@ -2434,30 +2322,30 @@
         <v>2016</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L25" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2469,27 +2357,27 @@
         <v>2017</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K26" s="9">
         <v>1</v>
@@ -2504,30 +2392,30 @@
         <v>2017</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L27" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2539,32 +2427,32 @@
         <v>2017</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L28" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2576,27 +2464,27 @@
         <v>2017</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K29" s="9">
         <v>1</v>
@@ -2611,32 +2499,32 @@
         <v>2017</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L30" s="10" t="str">
         <f t="shared" ref="L30" si="1">IF(OR(AND(J30&gt;1,J30&lt;&gt;"-"),AND(K30&gt;1,K30&lt;&gt;"-")),"Can exchange","")</f>
@@ -2648,27 +2536,27 @@
         <v>2018</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K31" s="9">
         <v>1</v>
@@ -2683,30 +2571,30 @@
         <v>2018</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L32" s="10"/>
     </row>
@@ -2715,27 +2603,27 @@
         <v>2018</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K33" s="9">
         <v>1</v>
@@ -2750,30 +2638,30 @@
         <v>2018</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L34" s="10"/>
     </row>
@@ -2782,27 +2670,27 @@
         <v>2019</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K35" s="9">
         <v>2</v>
@@ -2817,27 +2705,27 @@
         <v>2019</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K36" s="9">
         <v>1</v>
@@ -2852,32 +2740,32 @@
         <v>2019</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L37" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2889,27 +2777,27 @@
         <v>2019</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K38" s="9">
         <v>1</v>
@@ -2924,32 +2812,32 @@
         <v>2019</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L39" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2961,27 +2849,27 @@
         <v>2020</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K40" s="9">
         <v>1</v>
@@ -2996,32 +2884,32 @@
         <v>2020</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L41" s="10" t="str">
         <f t="shared" ref="L41:L42" si="4">IF(OR(AND(J41&gt;1,J41&lt;&gt;"-"),AND(K41&gt;1,K41&lt;&gt;"-")),"Can exchange","")</f>
@@ -3033,30 +2921,30 @@
         <v>2020</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L42" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3068,27 +2956,27 @@
         <v>2020</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K43" s="9">
         <v>1</v>
@@ -3103,32 +2991,32 @@
         <v>2020</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L44" s="10" t="str">
         <f t="shared" ref="L44" si="5">IF(OR(AND(J44&gt;1,J44&lt;&gt;"-"),AND(K44&gt;1,K44&lt;&gt;"-")),"Can exchange","")</f>
@@ -3140,30 +3028,30 @@
         <v>2021</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L45" s="10" t="str">
         <f t="shared" ref="L45" si="6">IF(OR(AND(J45&gt;1,J45&lt;&gt;"-"),AND(K45&gt;1,K45&lt;&gt;"-")),"Can exchange","")</f>
@@ -3175,27 +3063,27 @@
         <v>2021</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K46" s="9">
         <v>1</v>
@@ -3210,32 +3098,32 @@
         <v>2021</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L47" s="10" t="str">
         <f t="shared" ref="L47:L49" si="8">IF(OR(AND(J47&gt;1,J47&lt;&gt;"-"),AND(K47&gt;1,K47&lt;&gt;"-")),"Can exchange","")</f>
@@ -3247,30 +3135,30 @@
         <v>2021</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L48" s="10" t="str">
         <f t="shared" si="8"/>
@@ -3282,28 +3170,28 @@
         <v>2022</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J49" s="9">
         <v>0</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L49" s="10" t="str">
         <f t="shared" si="8"/>
@@ -3315,30 +3203,30 @@
         <v>2022</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J50" s="9">
         <v>1</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L50" s="10" t="str">
         <f t="shared" ref="L50" si="9">IF(OR(AND(J50&gt;1,J50&lt;&gt;"-"),AND(K50&gt;1,K50&lt;&gt;"-")),"Can exchange","")</f>
@@ -3350,28 +3238,28 @@
         <v>2022</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L51" s="10" t="str">
         <f t="shared" ref="L51" si="10">IF(OR(AND(J51&gt;1,J51&lt;&gt;"-"),AND(K51&gt;1,K51&lt;&gt;"-")),"Can exchange","")</f>
@@ -3383,28 +3271,28 @@
         <v>2023</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J52" s="9">
         <v>0</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L52" s="10" t="str">
         <f t="shared" ref="L52:L53" si="11">IF(OR(AND(J52&gt;1,J52&lt;&gt;"-"),AND(K52&gt;1,K52&lt;&gt;"-")),"Can exchange","")</f>
@@ -3416,28 +3304,28 @@
         <v>2023</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L53" s="10" t="str">
         <f t="shared" si="11"/>
@@ -3453,11 +3341,11 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
-    <cfRule type="containsText" dxfId="76" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
+  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3470,7 +3358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="75" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="147" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3487,7 +3375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="74" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3504,7 +3392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="73" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3521,7 +3409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="72" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3538,7 +3426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="71" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3555,7 +3443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="70" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3572,7 +3460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="69" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3589,7 +3477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="68" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3606,7 +3494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="67" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3623,7 +3511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="66" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3640,7 +3528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="65" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3657,7 +3545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="64" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3674,7 +3562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="63" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3691,7 +3579,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="62" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3708,7 +3596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="61" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3725,7 +3613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="60" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3742,7 +3630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="59" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3759,7 +3647,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="58" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3776,7 +3664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="57" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3793,7 +3681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="56" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3810,7 +3698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="55" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3827,7 +3715,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="54" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3844,7 +3732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="53" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3861,7 +3749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="52" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3878,7 +3766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="51" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3895,7 +3783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="50" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3912,7 +3800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="49" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3929,7 +3817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="48" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3946,7 +3834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="47" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3963,7 +3851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="46" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3980,7 +3868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsText" dxfId="45" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3997,7 +3885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="44" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4014,7 +3902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="43" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4031,7 +3919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="42" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4048,7 +3936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="41" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4065,7 +3953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="40" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4082,7 +3970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4099,7 +3987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="38" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4116,7 +4004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="37" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4133,7 +4021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="36" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4150,7 +4038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="35" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4167,7 +4055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="31" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4184,7 +4072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="30" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4201,7 +4089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4218,7 +4106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="27" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4235,7 +4123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="containsText" dxfId="26" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4252,7 +4140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4269,7 +4157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="24" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4286,7 +4174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="23" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4320,7 +4208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4337,7 +4225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4354,7 +4242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4371,7 +4259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4388,7 +4276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4405,7 +4293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4422,7 +4310,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4439,7 +4327,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4456,7 +4344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4495,13 +4383,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4509,10 +4397,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4520,10 +4408,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4531,10 +4419,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4542,10 +4430,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4553,10 +4441,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4564,10 +4452,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
